--- a/QNASMINI BOM表材料购买清单20230524测试版.xlsx
+++ b/QNASMINI BOM表材料购买清单20230524测试版.xlsx
@@ -252,14 +252,6 @@
   </si>
   <si>
     <t>固定主板，至少使用2颗固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V 60瓦左右即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?abbucket=11&amp;id=547655764448&amp;rn=ff84bc5a11d19a7a209b35de8de31649&amp;spm=a1z10.3-b-s.w4011-23472802678.53.39613f86l6cBgB&amp;skuId=4428203732756</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,6 +356,37 @@
   </si>
   <si>
     <t>使用M2转6口SATA的扩展卡ASM1166,使用一颗M3*4的小螺丝锁定，切记不可以使用超长螺丝，会顶到主板的IO针脚导致短路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-21435993451.11.6a1e57d4DUE544&amp;id=588783417860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12V 60瓦左右即可 一定要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1766,7 +1789,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1857,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.75" customHeight="1">
@@ -1874,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" customHeight="1">
@@ -1908,7 +1931,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
@@ -1925,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>51</v>
@@ -1934,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="59.25" customHeight="1">
@@ -1948,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -2005,7 +2028,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>478</v>
@@ -2042,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1">
         <v>115</v>
@@ -2060,27 +2083,27 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="93" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2095,13 +2118,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>36</v>
@@ -2118,7 +2141,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1">
         <v>15</v>
@@ -2135,16 +2158,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1">
         <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="78.75" customHeight="1">
@@ -2158,13 +2181,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1">
         <v>84</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
